--- a/data_quarter/zb/价格指数/固定资产投资价格指数_累计值（上年同期=100）(-2018).xlsx
+++ b/data_quarter/zb/价格指数/固定资产投资价格指数_累计值（上年同期=100）(-2018).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +504,81 @@
           <t>钢材价格指数_累计值（上年同期=100）</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>人工费价格指数</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>其他材料价格指数</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>其他费用价格指数</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>化工材料价格指数</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>固定资产投资价格指数</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>地方建筑材料价格指数</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>建筑、安装、装饰工程价格指数</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>木材价格指数</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>机械使用费价格指数</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>材料费价格指数</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>水泥价格指数</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>电料价格指数</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>设备、工器具购置价格指数</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>钢材价格指数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -533,25 +603,47 @@
         <v>100.7</v>
       </c>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>104.1</v>
+        <v>103.8</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>103.3</v>
+        <v>102.9</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>104.1</v>
+        <v>103.5</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -559,28 +651,50 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>103.8</v>
+        <v>104.1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>102.9</v>
+        <v>103.3</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>103.5</v>
+        <v>104.1</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -588,14 +702,36 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -620,11 +756,33 @@
         <v>100.2</v>
       </c>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -649,25 +807,47 @@
         <v>100.2</v>
       </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>4.699999999999989</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>7.300000000000011</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>110.3</v>
+        <v>110</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>115.1</v>
+        <v>114.6</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -678,25 +858,47 @@
         <v>100.6</v>
       </c>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>2.199999999999989</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>110</v>
+        <v>110.3</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>114.6</v>
+        <v>115.1</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -707,11 +909,33 @@
         <v>100.6</v>
       </c>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -736,11 +960,33 @@
         <v>100.6</v>
       </c>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="AC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -765,25 +1011,47 @@
         <v>98.90000000000001</v>
       </c>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>102.1</v>
+        <v>101.9</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>95.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -791,28 +1059,50 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>97.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="AC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>95.90000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -820,14 +1110,36 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>98.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.1999999999999886</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="AC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -852,11 +1164,33 @@
         <v>97.59999999999999</v>
       </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="n">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="AC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -901,109 +1235,235 @@
       <c r="O14" t="n">
         <v>99.90000000000001</v>
       </c>
+      <c r="P14" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.300000000000011</v>
+      </c>
+      <c r="U14" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="W14" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.100000000000009</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>99.90000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>108.2</v>
+        <v>107.3</v>
       </c>
       <c r="C15" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>103.1</v>
+        <v>103</v>
       </c>
       <c r="E15" t="n">
-        <v>105.8</v>
+        <v>106.2</v>
       </c>
       <c r="F15" t="n">
-        <v>103</v>
+        <v>102.7</v>
       </c>
       <c r="G15" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="H15" t="n">
-        <v>104</v>
+        <v>103.6</v>
       </c>
       <c r="I15" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="J15" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="K15" t="n">
-        <v>103.2</v>
+        <v>102.9</v>
       </c>
       <c r="L15" t="n">
-        <v>101.6</v>
+        <v>101.1</v>
       </c>
       <c r="M15" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>100</v>
+      </c>
+      <c r="O15" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.900000000000006</v>
+      </c>
+      <c r="X15" t="n">
         <v>102.9</v>
       </c>
-      <c r="N15" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>103.7</v>
+      <c r="Y15" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3.399999999999991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.3</v>
+        <v>108.2</v>
       </c>
       <c r="C16" t="n">
-        <v>102</v>
+        <v>102.2</v>
       </c>
       <c r="D16" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="F16" t="n">
         <v>103</v>
       </c>
-      <c r="E16" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>102.7</v>
       </c>
-      <c r="G16" t="n">
-        <v>102.4</v>
-      </c>
       <c r="H16" t="n">
-        <v>103.6</v>
+        <v>104</v>
       </c>
       <c r="I16" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="J16" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="M16" t="n">
         <v>102.9</v>
       </c>
-      <c r="K16" t="n">
-        <v>102.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>102.3</v>
-      </c>
       <c r="N16" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="O16" t="n">
-        <v>103.3</v>
+        <v>103.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="S16" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="W16" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.4000000000000057</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1048,11 +1508,53 @@
       <c r="O17" t="n">
         <v>105</v>
       </c>
+      <c r="P17" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="R17" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.600000000000009</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.299999999999997</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1097,109 +1599,235 @@
       <c r="O18" t="n">
         <v>111.5</v>
       </c>
+      <c r="P18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.900000000000006</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4.399999999999991</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.199999999999989</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.399999999999991</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.099999999999994</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.3</v>
+        <v>112.5</v>
       </c>
       <c r="C19" t="n">
-        <v>103.9</v>
+        <v>103.4</v>
       </c>
       <c r="D19" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="E19" t="n">
-        <v>108</v>
+        <v>107.9</v>
       </c>
       <c r="F19" t="n">
-        <v>106.8</v>
+        <v>106.6</v>
       </c>
       <c r="G19" t="n">
-        <v>108.5</v>
+        <v>108.3</v>
       </c>
       <c r="H19" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="K19" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="L19" t="n">
         <v>109.6</v>
       </c>
-      <c r="I19" t="n">
-        <v>106.9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>109.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>109.8</v>
-      </c>
       <c r="M19" t="n">
-        <v>105.9</v>
+        <v>105.6</v>
       </c>
       <c r="N19" t="n">
         <v>101.3</v>
       </c>
       <c r="O19" t="n">
-        <v>110.9</v>
+        <v>110.8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>110.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>112.5</v>
+        <v>113.3</v>
       </c>
       <c r="C20" t="n">
-        <v>103.4</v>
+        <v>103.9</v>
       </c>
       <c r="D20" t="n">
-        <v>103.8</v>
+        <v>104</v>
       </c>
       <c r="E20" t="n">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6</v>
+        <v>106.8</v>
       </c>
       <c r="G20" t="n">
-        <v>108.3</v>
+        <v>108.5</v>
       </c>
       <c r="H20" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="K20" t="n">
         <v>109.3</v>
       </c>
-      <c r="I20" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>104.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>109.2</v>
-      </c>
       <c r="L20" t="n">
-        <v>109.6</v>
+        <v>109.8</v>
       </c>
       <c r="M20" t="n">
-        <v>105.6</v>
+        <v>105.9</v>
       </c>
       <c r="N20" t="n">
         <v>101.3</v>
       </c>
       <c r="O20" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.1000000000000085</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1244,11 +1872,53 @@
       <c r="O21" t="n">
         <v>109.8</v>
       </c>
+      <c r="P21" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="R21" t="n">
+        <v>104</v>
+      </c>
+      <c r="S21" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="T21" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>108.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1293,109 +1963,235 @@
       <c r="O22" t="n">
         <v>98.7</v>
       </c>
+      <c r="P22" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="V22" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="W22" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="X22" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>98.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>109.8</v>
+        <v>110.2</v>
       </c>
       <c r="C23" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="D23" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="E23" t="n">
-        <v>103.7</v>
+        <v>104.7</v>
       </c>
       <c r="F23" t="n">
-        <v>101.4</v>
+        <v>102</v>
       </c>
       <c r="G23" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="M23" t="n">
         <v>101.8</v>
       </c>
-      <c r="H23" t="n">
+      <c r="N23" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="T23" t="n">
         <v>102</v>
       </c>
-      <c r="I23" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="L23" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="M23" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>99</v>
-      </c>
-      <c r="O23" t="n">
-        <v>95.3</v>
+      <c r="U23" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>97.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>110.2</v>
+        <v>109.8</v>
       </c>
       <c r="C24" t="n">
-        <v>102.8</v>
+        <v>102.2</v>
       </c>
       <c r="D24" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="E24" t="n">
-        <v>104.7</v>
+        <v>103.7</v>
       </c>
       <c r="F24" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>102</v>
       </c>
-      <c r="G24" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>102.8</v>
-      </c>
       <c r="I24" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="J24" t="n">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="K24" t="n">
-        <v>99.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>99.7</v>
+        <v>98.3</v>
       </c>
       <c r="M24" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99</v>
+      </c>
+      <c r="O24" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="U24" t="n">
         <v>101.8</v>
       </c>
-      <c r="N24" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>97.2</v>
+      <c r="V24" t="n">
+        <v>102</v>
+      </c>
+      <c r="W24" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>95.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1440,11 +2236,53 @@
       <c r="O25" t="n">
         <v>94.40000000000001</v>
       </c>
+      <c r="P25" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>98</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>94.40000000000001</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1489,24 +2327,66 @@
       <c r="O26" t="n">
         <v>93.5</v>
       </c>
+      <c r="P26" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>93.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108.3</v>
+        <v>108.9</v>
       </c>
       <c r="C27" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D27" t="n">
         <v>101.8</v>
       </c>
       <c r="E27" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="F27" t="n">
         <v>100</v>
@@ -1518,44 +2398,86 @@
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="K27" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="L27" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="M27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="N27" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>93.59999999999999</v>
+        <v>93.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>100</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="V27" t="n">
+        <v>100</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="X27" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>93.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.9</v>
+        <v>108.3</v>
       </c>
       <c r="C28" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="D28" t="n">
         <v>101.8</v>
       </c>
       <c r="E28" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="F28" t="n">
         <v>100</v>
@@ -1567,31 +2489,73 @@
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="J28" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="K28" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="L28" t="n">
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="M28" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N28" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="O28" t="n">
-        <v>93.3</v>
+        <v>93.59999999999999</v>
+      </c>
+      <c r="P28" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>100</v>
+      </c>
+      <c r="U28" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>100</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="X28" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.2999999999999972</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1636,11 +2600,53 @@
       <c r="O29" t="n">
         <v>94.09999999999999</v>
       </c>
+      <c r="P29" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="R29" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="W29" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="X29" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1685,109 +2691,235 @@
       <c r="O30" t="n">
         <v>95.8</v>
       </c>
+      <c r="P30" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="R30" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="S30" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.099999999999994</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="X30" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3.800000000000011</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.700000000000003</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.2</v>
+        <v>106.4</v>
       </c>
       <c r="C31" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="D31" t="n">
         <v>101.5</v>
       </c>
       <c r="E31" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="F31" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1</v>
+        <v>102.5</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="I31" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="J31" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="K31" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="L31" t="n">
-        <v>101.2</v>
+        <v>101.7</v>
       </c>
       <c r="M31" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="N31" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
+      </c>
+      <c r="P31" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="X31" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>95.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="C32" t="n">
-        <v>101.4</v>
+        <v>101.3</v>
       </c>
       <c r="D32" t="n">
         <v>101.5</v>
       </c>
       <c r="E32" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="M32" t="n">
         <v>100.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G32" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="H32" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="K32" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="M32" t="n">
-        <v>100.4</v>
       </c>
       <c r="N32" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>95.7</v>
+        <v>95.40000000000001</v>
+      </c>
+      <c r="P32" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="U32" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1832,11 +2964,53 @@
       <c r="O33" t="n">
         <v>94.90000000000001</v>
       </c>
+      <c r="P33" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="T33" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>101.7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>94.90000000000001</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1881,109 +3055,235 @@
       <c r="O34" t="n">
         <v>90.40000000000001</v>
       </c>
+      <c r="P34" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>101</v>
+      </c>
+      <c r="S34" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="U34" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="V34" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="W34" t="n">
+        <v>101</v>
+      </c>
+      <c r="X34" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>90.40000000000001</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.7</v>
+        <v>105.1</v>
       </c>
       <c r="C35" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="D35" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="E35" t="n">
-        <v>95.7</v>
+        <v>97</v>
       </c>
       <c r="F35" t="n">
-        <v>98.5</v>
+        <v>99</v>
       </c>
       <c r="G35" t="n">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="H35" t="n">
-        <v>97.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="J35" t="n">
         <v>100.9</v>
       </c>
       <c r="K35" t="n">
-        <v>94.8</v>
+        <v>95.5</v>
       </c>
       <c r="L35" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="M35" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="N35" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="O35" t="n">
-        <v>89.2</v>
+        <v>90.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="R35" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="T35" t="n">
+        <v>99</v>
+      </c>
+      <c r="U35" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="X35" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>90.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>105.1</v>
+        <v>104.7</v>
       </c>
       <c r="C36" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="D36" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="I36" t="n">
         <v>100.9</v>
-      </c>
-      <c r="E36" t="n">
-        <v>97</v>
-      </c>
-      <c r="F36" t="n">
-        <v>99</v>
-      </c>
-      <c r="G36" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="I36" t="n">
-        <v>101.1</v>
       </c>
       <c r="J36" t="n">
         <v>100.9</v>
       </c>
       <c r="K36" t="n">
-        <v>95.5</v>
+        <v>94.8</v>
       </c>
       <c r="L36" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="N36" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="S36" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="V36" t="n">
         <v>97.8</v>
       </c>
-      <c r="M36" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="N36" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="O36" t="n">
-        <v>90.2</v>
+      <c r="W36" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="X36" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2028,11 +3328,53 @@
       <c r="O37" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="P37" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="V37" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>94</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>88.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2077,109 +3419,235 @@
       <c r="O38" t="n">
         <v>86.8</v>
       </c>
+      <c r="P38" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="R38" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="T38" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="V38" t="n">
+        <v>96.41</v>
+      </c>
+      <c r="W38" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="X38" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>86.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D39" t="n">
         <v>100.5</v>
       </c>
       <c r="E39" t="n">
-        <v>95.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="F39" t="n">
-        <v>98.8</v>
+        <v>98.2</v>
       </c>
       <c r="G39" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="H39" t="n">
-        <v>98.5</v>
+        <v>97.7</v>
       </c>
       <c r="I39" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="J39" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="K39" t="n">
-        <v>96.2</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="L39" t="n">
-        <v>95.2</v>
+        <v>94.3</v>
       </c>
       <c r="M39" t="n">
         <v>99</v>
       </c>
       <c r="N39" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="O39" t="n">
-        <v>93.59999999999999</v>
+        <v>91.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="R39" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.8800000000000097</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.290000000000006</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="X39" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.100000000000009</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4.400000000000006</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="C40" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="D40" t="n">
         <v>100.5</v>
       </c>
       <c r="E40" t="n">
-        <v>95.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="I40" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="J40" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="K40" t="n">
-        <v>94.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="L40" t="n">
-        <v>94.3</v>
+        <v>95.2</v>
       </c>
       <c r="M40" t="n">
         <v>99</v>
       </c>
       <c r="N40" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="O40" t="n">
-        <v>91.2</v>
+        <v>93.59999999999999</v>
+      </c>
+      <c r="P40" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="R40" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="W40" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>1.299999999999997</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.399999999999991</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2224,11 +3692,53 @@
       <c r="O41" t="n">
         <v>96.3</v>
       </c>
+      <c r="P41" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="R41" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1.399999999999991</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.700000000000003</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2273,109 +3783,235 @@
       <c r="O42" t="n">
         <v>118</v>
       </c>
+      <c r="P42" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.099999999999994</v>
+      </c>
+      <c r="U42" t="n">
+        <v>3.400000000000006</v>
+      </c>
+      <c r="V42" t="n">
+        <v>7</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.8000000000000114</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>10.90000000000001</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2.799999999999997</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="C43" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="D43" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="E43" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="G43" t="n">
+        <v>103</v>
+      </c>
+      <c r="H43" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="I43" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="J43" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="M43" t="n">
         <v>102.4</v>
       </c>
-      <c r="F43" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="G43" t="n">
-        <v>103.9</v>
-      </c>
-      <c r="H43" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="I43" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="K43" t="n">
-        <v>109.8</v>
-      </c>
-      <c r="L43" t="n">
-        <v>106.1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>102.8</v>
-      </c>
       <c r="N43" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="O43" t="n">
-        <v>119.3</v>
+        <v>117.2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="R43" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>117.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="C44" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="D44" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="E44" t="n">
-        <v>101.9</v>
+        <v>102.4</v>
       </c>
       <c r="F44" t="n">
-        <v>104.6</v>
+        <v>105.2</v>
       </c>
       <c r="G44" t="n">
-        <v>103</v>
+        <v>103.9</v>
       </c>
       <c r="H44" t="n">
-        <v>106.4</v>
+        <v>107.3</v>
       </c>
       <c r="I44" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="J44" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
       <c r="K44" t="n">
-        <v>108.6</v>
+        <v>109.8</v>
       </c>
       <c r="L44" t="n">
-        <v>105.2</v>
+        <v>106.1</v>
       </c>
       <c r="M44" t="n">
-        <v>102.4</v>
+        <v>102.8</v>
       </c>
       <c r="N44" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="O44" t="n">
-        <v>117.2</v>
+        <v>119.3</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.6000000000000085</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.200000000000003</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>2.099999999999994</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2420,11 +4056,53 @@
       <c r="O45" t="n">
         <v>120.7</v>
       </c>
+      <c r="P45" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="R45" t="n">
+        <v>101</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.100000000000009</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.400000000000006</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2469,109 +4147,235 @@
       <c r="O46" t="n">
         <v>115.6</v>
       </c>
+      <c r="P46" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="R46" t="n">
+        <v>101</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8999999999999915</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="U46" t="n">
+        <v>4.900000000000006</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.8000000000000114</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.6999999999999886</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>3.700000000000003</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.7000000000000028</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>104.3</v>
+        <v>104</v>
       </c>
       <c r="C47" t="n">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="D47" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="E47" t="n">
-        <v>105.6</v>
+        <v>104.6</v>
       </c>
       <c r="F47" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="G47" t="n">
-        <v>109.9</v>
+        <v>109.4</v>
       </c>
       <c r="H47" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="I47" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="J47" t="n">
         <v>102.3</v>
       </c>
       <c r="K47" t="n">
-        <v>109.8</v>
+        <v>110.2</v>
       </c>
       <c r="L47" t="n">
-        <v>111.1</v>
+        <v>110.7</v>
       </c>
       <c r="M47" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="N47" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="O47" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="T47" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="U47" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>103.4</v>
+      </c>
+      <c r="X47" t="n">
         <v>102.3</v>
       </c>
-      <c r="N47" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>111.2</v>
+      <c r="Y47" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.2000000000000028</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>112.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>104</v>
+        <v>104.3</v>
       </c>
       <c r="C48" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="D48" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="E48" t="n">
-        <v>104.6</v>
+        <v>105.6</v>
       </c>
       <c r="F48" t="n">
-        <v>105.7</v>
+        <v>105.6</v>
       </c>
       <c r="G48" t="n">
-        <v>109.4</v>
+        <v>109.9</v>
       </c>
       <c r="H48" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="I48" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="J48" t="n">
         <v>102.3</v>
       </c>
       <c r="K48" t="n">
-        <v>110.2</v>
+        <v>109.8</v>
       </c>
       <c r="L48" t="n">
-        <v>110.7</v>
+        <v>111.1</v>
       </c>
       <c r="M48" t="n">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="N48" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="O48" t="n">
-        <v>112.6</v>
+        <v>111.2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.2999999999999972</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="X48" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.3999999999999915</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>111.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2614,6 +4418,48 @@
         <v>101</v>
       </c>
       <c r="O49" t="n">
+        <v>110</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.1000000000000085</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.09999999999999432</v>
+      </c>
+      <c r="V49" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="W49" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC49" t="n">
         <v>110</v>
       </c>
     </row>
